--- a/data/trans_bre/IP2002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,28</t>
+          <t>-8,74; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,08</t>
+          <t>-7,93; 7,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,83</t>
+          <t>-2,47; 10,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 5,29</t>
+          <t>-3,84; 5,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 109,54</t>
+          <t>-66,58; 94,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 148,31</t>
+          <t>-55,19; 122,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,51; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,84</t>
+          <t>-2,62; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,61</t>
+          <t>-4,52; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,49</t>
+          <t>-0,97; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,78</t>
+          <t>-1,31; 3,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 44,54</t>
+          <t>-30,29; 49,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 9,76</t>
+          <t>-54,02; 15,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 109,82</t>
+          <t>-15,58; 122,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 133,37</t>
+          <t>-25,16; 126,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,93</t>
+          <t>-4,63; 4,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,43</t>
+          <t>-5,16; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,18</t>
+          <t>-4,13; 3,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,8</t>
+          <t>-3,36; 7,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 151,82</t>
+          <t>-58,09; 121,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 78,03</t>
+          <t>-74,94; 86,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 130,43</t>
+          <t>-63,97; 155,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 138,4</t>
+          <t>-36,3; 131,98</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,03</t>
+          <t>-2,49; 2,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,61</t>
+          <t>-3,34; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,39</t>
+          <t>-0,61; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,37</t>
+          <t>-1,13; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 32,58</t>
+          <t>-29,08; 36,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 11,03</t>
+          <t>-42,89; 13,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 89,12</t>
+          <t>-10,26; 85,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 84,28</t>
+          <t>-17,69; 87,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; 8,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 9,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 5,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,8; 90,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,7; 155,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,54; 1210,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>-27,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>105,74%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,92%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 4,57</t>
+          <t>-2,5; 3,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 7,66</t>
+          <t>-4,55; 0,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 10,39</t>
+          <t>-0,89; 4,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,7</t>
+          <t>-1,26; 3,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 94,45</t>
+          <t>-29,22; 48,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 122,49</t>
+          <t>-54,86; 9,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,16; 111,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,44; 117,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,45%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,98</t>
+          <t>-4,42; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,79</t>
+          <t>-5,24; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,74</t>
+          <t>-4,06; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,79</t>
+          <t>-4,5; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 49,59</t>
+          <t>-55,11; 138,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 15,43</t>
+          <t>-75,08; 101,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 122,07</t>
+          <t>-65,09; 143,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 126,63</t>
+          <t>-40,71; 113,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,82%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,52</t>
+          <t>-2,61; 2,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,38</t>
+          <t>-3,64; 0,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,85</t>
+          <t>-0,67; 3,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 7,17</t>
+          <t>-1,5; 2,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 121,56</t>
+          <t>-31,1; 33,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,94; 86,15</t>
+          <t>-45,59; 15,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 155,12</t>
+          <t>-12,57; 94,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 131,98</t>
+          <t>-24,51; 69,0</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-20,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 2,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 3,32</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 3,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-29,08; 36,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-42,89; 13,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 85,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,69; 87,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
